--- a/results/mp/logistic/corona/confidence/84/masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,57 +40,48 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -103,181 +94,181 @@
     <t>prices</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
-    <t>on</t>
+    <t>19</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
-    <t>19</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>are</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>to</t>
+    <t>for</t>
   </si>
   <si>
     <t>in</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>i</t>
   </si>
 </sst>
 </file>
@@ -635,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +634,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +695,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8333333333333334</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -754,13 +745,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8321917808219178</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>243</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>243</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K4">
         <v>0.9322033898305084</v>
@@ -804,13 +795,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7941176470588235</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K5">
         <v>0.9166666666666666</v>
@@ -854,7 +845,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7631578947368421</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
         <v>29</v>
@@ -872,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.8611111111111112</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +895,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7567567567567568</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +913,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8511749347258486</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>326</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>326</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +945,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6271186440677966</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.8380281690140845</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L8">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,49 +995,49 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C9">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9">
+        <v>0.84375</v>
+      </c>
+      <c r="L9">
+        <v>135</v>
+      </c>
+      <c r="M9">
+        <v>135</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>25</v>
-      </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>15</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9">
-        <v>0.8328981723237598</v>
-      </c>
-      <c r="L9">
-        <v>319</v>
-      </c>
-      <c r="M9">
-        <v>319</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1045,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5949612403100775</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C10">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="D10">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,31 +1063,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.8205128205128205</v>
+        <v>0.8226950354609929</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1095,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5767195767195767</v>
+        <v>0.5838926174496645</v>
       </c>
       <c r="C11">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D11">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1113,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.8203125</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L11">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="M11">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1145,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5637583892617449</v>
+        <v>0.5775193798449613</v>
       </c>
       <c r="C12">
-        <v>84</v>
+        <v>298</v>
       </c>
       <c r="D12">
-        <v>84</v>
+        <v>298</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.81875</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1195,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5490196078431373</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.8181818181818182</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1245,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5272727272727272</v>
+        <v>0.4805555555555556</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.813953488372093</v>
+        <v>0.8046875</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1295,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4694444444444444</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C15">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,31 +1313,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.7931034482758621</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1345,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4533333333333333</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C16">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.7924528301886793</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L16">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="M16">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,13 +1395,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4464285714285715</v>
+        <v>0.3134920634920635</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1422,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.7804878048780488</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L17">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,37 +1445,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3555555555555556</v>
+        <v>0.228494623655914</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>58</v>
+        <v>287</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.7659574468085106</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1495,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3246753246753247</v>
+        <v>0.15</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,19 +1513,19 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>255</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="K19">
-        <v>0.7619047619047619</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L19">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1546,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,37 +1545,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3134920634920635</v>
+        <v>0.03284356093344858</v>
       </c>
       <c r="C20">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>173</v>
+        <v>1119</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,37 +1595,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.257372654155496</v>
+        <v>0.03276029841063899</v>
       </c>
       <c r="C21">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D21">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>277</v>
+        <v>2982</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.75</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,37 +1645,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1533333333333333</v>
+        <v>0.02756653992395437</v>
       </c>
       <c r="C22">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D22">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>254</v>
+        <v>2046</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.6911764705882353</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="M22">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,37 +1695,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.03713298791018999</v>
+        <v>0.02209005947323704</v>
       </c>
       <c r="C23">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D23">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="E23">
-        <v>0.07000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="F23">
-        <v>0.9299999999999999</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1115</v>
+        <v>2302</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.675</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1746,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,49 +1745,49 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03376018626309663</v>
+        <v>0.01576182136602452</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E24">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="F24">
-        <v>0.78</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>830</v>
+        <v>2248</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>0.6190476190476191</v>
+        <v>0.6735294117647059</v>
       </c>
       <c r="L24">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="M24">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1804,37 +1795,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03341985723556132</v>
+        <v>0.01481042654028436</v>
       </c>
       <c r="C25">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D25">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="E25">
-        <v>0.2</v>
+        <v>0.57</v>
       </c>
       <c r="F25">
-        <v>0.8</v>
+        <v>0.43</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>2979</v>
+        <v>4989</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K25">
-        <v>0.6153846153846154</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1846,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1854,49 +1845,49 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.03102836879432624</v>
+        <v>0.01448388412892697</v>
       </c>
       <c r="C26">
+        <v>71</v>
+      </c>
+      <c r="D26">
+        <v>165</v>
+      </c>
+      <c r="E26">
+        <v>0.57</v>
+      </c>
+      <c r="F26">
+        <v>0.43</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>4831</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26">
+        <v>0.6276595744680851</v>
+      </c>
+      <c r="L26">
+        <v>59</v>
+      </c>
+      <c r="M26">
+        <v>59</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>35</v>
-      </c>
-      <c r="D26">
-        <v>47</v>
-      </c>
-      <c r="E26">
-        <v>0.26</v>
-      </c>
-      <c r="F26">
-        <v>0.74</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1093</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K26">
-        <v>0.6142857142857143</v>
-      </c>
-      <c r="L26">
-        <v>43</v>
-      </c>
-      <c r="M26">
-        <v>43</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1904,37 +1895,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.02843803056027165</v>
+        <v>0.01406799531066823</v>
       </c>
       <c r="C27">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D27">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="E27">
-        <v>0.26</v>
+        <v>0.51</v>
       </c>
       <c r="F27">
-        <v>0.74</v>
+        <v>0.49</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2289</v>
+        <v>4205</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K27">
-        <v>0.6067415730337079</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L27">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1946,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1954,49 +1945,49 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.02750118539592224</v>
+        <v>0.01280558789289872</v>
       </c>
       <c r="C28">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D28">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="E28">
-        <v>0.37</v>
+        <v>0.74</v>
       </c>
       <c r="F28">
-        <v>0.63</v>
+        <v>0.26</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2051</v>
+        <v>2544</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K28">
-        <v>0.606694560669456</v>
+        <v>0.6224489795918368</v>
       </c>
       <c r="L28">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="M28">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2004,87 +1995,63 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01998401278976818</v>
+        <v>0.008769080870412472</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D29">
+        <v>149</v>
+      </c>
+      <c r="E29">
+        <v>0.82</v>
+      </c>
+      <c r="F29">
+        <v>0.18</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3052</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29">
+        <v>0.62</v>
+      </c>
+      <c r="L29">
+        <v>31</v>
+      </c>
+      <c r="M29">
+        <v>31</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E29">
-        <v>0.6</v>
-      </c>
-      <c r="F29">
-        <v>0.4</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1226</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K29">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="L29">
-        <v>30</v>
-      </c>
-      <c r="M29">
-        <v>30</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.01928133216476775</v>
-      </c>
-      <c r="C30">
-        <v>44</v>
-      </c>
-      <c r="D30">
-        <v>71</v>
-      </c>
-      <c r="E30">
-        <v>0.38</v>
-      </c>
-      <c r="F30">
-        <v>0.62</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>2238</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="K30">
-        <v>0.574468085106383</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L30">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2096,45 +2063,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.0180672268907563</v>
-      </c>
-      <c r="C31">
-        <v>43</v>
-      </c>
-      <c r="D31">
-        <v>108</v>
-      </c>
-      <c r="E31">
-        <v>0.6</v>
-      </c>
-      <c r="F31">
-        <v>0.4</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>2337</v>
-      </c>
       <c r="J31" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K31">
-        <v>0.54</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2146,45 +2089,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.01482799525504152</v>
-      </c>
-      <c r="C32">
-        <v>75</v>
-      </c>
-      <c r="D32">
-        <v>182</v>
-      </c>
-      <c r="E32">
-        <v>0.59</v>
-      </c>
-      <c r="F32">
-        <v>0.41</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>4983</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K32">
-        <v>0.4383561643835616</v>
+        <v>0.5606694560669456</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2196,39 +2115,15 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.01364705882352941</v>
-      </c>
-      <c r="C33">
-        <v>58</v>
-      </c>
-      <c r="D33">
-        <v>136</v>
-      </c>
-      <c r="E33">
-        <v>0.57</v>
-      </c>
-      <c r="F33">
-        <v>0.43</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>4192</v>
-      </c>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K33">
-        <v>0.40625</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="L33">
         <v>26</v>
@@ -2246,611 +2141,515 @@
         <v>0</v>
       </c>
       <c r="Q33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34">
+        <v>0.453125</v>
+      </c>
+      <c r="L34">
+        <v>29</v>
+      </c>
+      <c r="M34">
+        <v>29</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35">
+        <v>0.4487179487179487</v>
+      </c>
+      <c r="L35">
+        <v>35</v>
+      </c>
+      <c r="M35">
+        <v>35</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36">
+        <v>0.4246575342465753</v>
+      </c>
+      <c r="L36">
+        <v>31</v>
+      </c>
+      <c r="M36">
+        <v>31</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37">
+        <v>0.4098360655737705</v>
+      </c>
+      <c r="L37">
+        <v>25</v>
+      </c>
+      <c r="M37">
+        <v>25</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38">
+        <v>0.145945945945946</v>
+      </c>
+      <c r="L38">
+        <v>27</v>
+      </c>
+      <c r="M38">
+        <v>27</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39">
+        <v>0.07951807228915662</v>
+      </c>
+      <c r="L39">
+        <v>33</v>
+      </c>
+      <c r="M39">
+        <v>34</v>
+      </c>
+      <c r="N39">
+        <v>0.97</v>
+      </c>
+      <c r="O39">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K40">
+        <v>0.07949790794979079</v>
+      </c>
+      <c r="L40">
+        <v>95</v>
+      </c>
+      <c r="M40">
+        <v>100</v>
+      </c>
+      <c r="N40">
+        <v>0.95</v>
+      </c>
+      <c r="O40">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K41">
+        <v>0.06954436450839328</v>
+      </c>
+      <c r="L41">
+        <v>29</v>
+      </c>
+      <c r="M41">
+        <v>30</v>
+      </c>
+      <c r="N41">
+        <v>0.97</v>
+      </c>
+      <c r="O41">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K42">
+        <v>0.06055045871559633</v>
+      </c>
+      <c r="L42">
+        <v>33</v>
+      </c>
+      <c r="M42">
+        <v>35</v>
+      </c>
+      <c r="N42">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O42">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K43">
+        <v>0.04075235109717868</v>
+      </c>
+      <c r="L43">
+        <v>26</v>
+      </c>
+      <c r="M43">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.01317647058823529</v>
-      </c>
-      <c r="C34">
-        <v>28</v>
-      </c>
-      <c r="D34">
-        <v>61</v>
-      </c>
-      <c r="E34">
-        <v>0.54</v>
-      </c>
-      <c r="F34">
-        <v>0.46</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>2097</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K34">
-        <v>0.3974358974358974</v>
-      </c>
-      <c r="L34">
-        <v>31</v>
-      </c>
-      <c r="M34">
-        <v>31</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
+      <c r="N43">
+        <v>0.68</v>
+      </c>
+      <c r="O43">
+        <v>0.32</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K44">
+        <v>0.03843730308758664</v>
+      </c>
+      <c r="L44">
+        <v>122</v>
+      </c>
+      <c r="M44">
+        <v>149</v>
+      </c>
+      <c r="N44">
+        <v>0.82</v>
+      </c>
+      <c r="O44">
+        <v>0.18</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K45">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="L45">
+        <v>96</v>
+      </c>
+      <c r="M45">
+        <v>129</v>
+      </c>
+      <c r="N45">
+        <v>0.74</v>
+      </c>
+      <c r="O45">
+        <v>0.26</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K46">
+        <v>0.03556910569105691</v>
+      </c>
+      <c r="L46">
+        <v>35</v>
+      </c>
+      <c r="M46">
         <v>40</v>
       </c>
-      <c r="B35">
-        <v>0.01244651886425515</v>
-      </c>
-      <c r="C35">
-        <v>32</v>
-      </c>
-      <c r="D35">
-        <v>134</v>
-      </c>
-      <c r="E35">
-        <v>0.76</v>
-      </c>
-      <c r="F35">
-        <v>0.24</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>2539</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K35">
-        <v>0.2407407407407407</v>
-      </c>
-      <c r="L35">
-        <v>26</v>
-      </c>
-      <c r="M35">
-        <v>27</v>
-      </c>
-      <c r="N35">
-        <v>0.96</v>
-      </c>
-      <c r="O35">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.01225740551583248</v>
-      </c>
-      <c r="C36">
-        <v>60</v>
-      </c>
-      <c r="D36">
-        <v>161</v>
-      </c>
-      <c r="E36">
-        <v>0.63</v>
-      </c>
-      <c r="F36">
-        <v>0.37</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>4835</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="L36">
-        <v>26</v>
-      </c>
-      <c r="M36">
-        <v>26</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.0100096867936713</v>
-      </c>
-      <c r="C37">
-        <v>31</v>
-      </c>
-      <c r="D37">
-        <v>135</v>
-      </c>
-      <c r="E37">
-        <v>0.77</v>
-      </c>
-      <c r="F37">
-        <v>0.23</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>3066</v>
-      </c>
-      <c r="J37" s="1" t="s">
+      <c r="N46">
+        <v>0.88</v>
+      </c>
+      <c r="O46">
+        <v>0.12</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K37">
-        <v>0.08608058608058608</v>
-      </c>
-      <c r="L37">
-        <v>47</v>
-      </c>
-      <c r="M37">
-        <v>48</v>
-      </c>
-      <c r="N37">
-        <v>0.98</v>
-      </c>
-      <c r="O37">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
+      <c r="K47">
+        <v>0.03288201160541586</v>
+      </c>
+      <c r="L47">
+        <v>34</v>
+      </c>
+      <c r="M47">
+        <v>40</v>
+      </c>
+      <c r="N47">
+        <v>0.85</v>
+      </c>
+      <c r="O47">
+        <v>0.15</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K38">
-        <v>0.07627829002514669</v>
-      </c>
-      <c r="L38">
-        <v>91</v>
-      </c>
-      <c r="M38">
-        <v>98</v>
-      </c>
-      <c r="N38">
-        <v>0.93</v>
-      </c>
-      <c r="O38">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K39">
-        <v>0.06763285024154589</v>
-      </c>
-      <c r="L39">
-        <v>28</v>
-      </c>
-      <c r="M39">
-        <v>32</v>
-      </c>
-      <c r="N39">
-        <v>0.88</v>
-      </c>
-      <c r="O39">
-        <v>0.12</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K40">
-        <v>0.0452418096723869</v>
-      </c>
-      <c r="L40">
-        <v>29</v>
-      </c>
-      <c r="M40">
-        <v>38</v>
-      </c>
-      <c r="N40">
-        <v>0.76</v>
-      </c>
-      <c r="O40">
-        <v>0.24</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K41">
-        <v>0.03862173419159409</v>
-      </c>
-      <c r="L41">
-        <v>102</v>
-      </c>
-      <c r="M41">
-        <v>134</v>
-      </c>
-      <c r="N41">
-        <v>0.76</v>
-      </c>
-      <c r="O41">
-        <v>0.24</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>2539</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K42">
-        <v>0.03861788617886179</v>
-      </c>
-      <c r="L42">
-        <v>38</v>
-      </c>
-      <c r="M42">
-        <v>43</v>
-      </c>
-      <c r="N42">
-        <v>0.88</v>
-      </c>
-      <c r="O42">
-        <v>0.12</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K43">
-        <v>0.03666666666666667</v>
-      </c>
-      <c r="L43">
-        <v>33</v>
-      </c>
-      <c r="M43">
-        <v>34</v>
-      </c>
-      <c r="N43">
-        <v>0.97</v>
-      </c>
-      <c r="O43">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K44">
-        <v>0.03280757097791798</v>
-      </c>
-      <c r="L44">
-        <v>104</v>
-      </c>
-      <c r="M44">
-        <v>135</v>
-      </c>
-      <c r="N44">
-        <v>0.77</v>
-      </c>
-      <c r="O44">
-        <v>0.23</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>3066</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K45">
-        <v>0.03238015138772078</v>
-      </c>
-      <c r="L45">
-        <v>77</v>
-      </c>
-      <c r="M45">
-        <v>93</v>
-      </c>
-      <c r="N45">
-        <v>0.83</v>
-      </c>
-      <c r="O45">
-        <v>0.17</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>2301</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K46">
-        <v>0.03148614609571788</v>
-      </c>
-      <c r="L46">
-        <v>25</v>
-      </c>
-      <c r="M46">
-        <v>32</v>
-      </c>
-      <c r="N46">
-        <v>0.78</v>
-      </c>
-      <c r="O46">
-        <v>0.22</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K47">
-        <v>0.03115066751430388</v>
-      </c>
-      <c r="L47">
-        <v>49</v>
-      </c>
-      <c r="M47">
-        <v>70</v>
-      </c>
-      <c r="N47">
-        <v>0.7</v>
-      </c>
-      <c r="O47">
-        <v>0.3</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="K48">
-        <v>0.03006329113924051</v>
+        <v>0.02985702270815812</v>
       </c>
       <c r="L48">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="M48">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="N48">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="O48">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>1226</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K49">
-        <v>0.03003875968992248</v>
+        <v>0.02885682574916759</v>
       </c>
       <c r="L49">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M49">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N49">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>1001</v>
+        <v>875</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="K50">
-        <v>0.02706078268109909</v>
+        <v>0.02726146220570012</v>
       </c>
       <c r="L50">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M50">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="N50">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="O50">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>2337</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="K51">
-        <v>0.02102161100196464</v>
+        <v>0.02598425196850394</v>
       </c>
       <c r="L51">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="M51">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="N51">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="O51">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>4983</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K52">
-        <v>0.02046191247974068</v>
+        <v>0.01984282907662082</v>
       </c>
       <c r="L52">
         <v>101</v>
       </c>
       <c r="M52">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="N52">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="O52">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>4835</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K53">
-        <v>0.01826697892271663</v>
+        <v>0.01908629441624365</v>
       </c>
       <c r="L53">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="M53">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="N53">
         <v>0.57</v>
@@ -2862,111 +2661,163 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>4192</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K54">
-        <v>0.01630695443645084</v>
+        <v>0.01870503597122302</v>
       </c>
       <c r="L54">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M54">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="N54">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="O54">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>2051</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="K55">
-        <v>0.01549295774647887</v>
+        <v>0.01841269841269841</v>
       </c>
       <c r="L55">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M55">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="N55">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="O55">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>2097</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K56">
+        <v>0.01639344262295082</v>
+      </c>
+      <c r="L56">
         <v>35</v>
       </c>
-      <c r="K56">
-        <v>0.0119205298013245</v>
-      </c>
-      <c r="L56">
-        <v>27</v>
-      </c>
       <c r="M56">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="N56">
-        <v>0.38</v>
+        <v>0.6</v>
       </c>
       <c r="O56">
-        <v>0.62</v>
+        <v>0.4</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>2238</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K57">
-        <v>0.008322237017310254</v>
+        <v>0.0147610121836926</v>
       </c>
       <c r="L57">
+        <v>63</v>
+      </c>
+      <c r="M57">
+        <v>123</v>
+      </c>
+      <c r="N57">
+        <v>0.51</v>
+      </c>
+      <c r="O57">
+        <v>0.49</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58">
+        <v>0.01099868015838099</v>
+      </c>
+      <c r="L58">
         <v>25</v>
       </c>
-      <c r="M57">
-        <v>128</v>
-      </c>
-      <c r="N57">
-        <v>0.2</v>
-      </c>
-      <c r="O57">
-        <v>0.8</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>2979</v>
+      <c r="M58">
+        <v>61</v>
+      </c>
+      <c r="N58">
+        <v>0.41</v>
+      </c>
+      <c r="O58">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K59">
+        <v>0.01074344649763644</v>
+      </c>
+      <c r="L59">
+        <v>25</v>
+      </c>
+      <c r="M59">
+        <v>77</v>
+      </c>
+      <c r="N59">
+        <v>0.32</v>
+      </c>
+      <c r="O59">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>2302</v>
       </c>
     </row>
   </sheetData>
